--- a/biology/Médecine/Ténofovir/Ténofovir.xlsx
+++ b/biology/Médecine/Ténofovir/Ténofovir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>t%C3%A9nofovir</t>
+          <t>ténofovir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'efavirenz/emtricitabine/ténofovir est la première trithérapie anti-VIH disponible en un seul comprimé quotidien, vendue sous le nom d'Atripla. Il associe trois molécules provenant de laboratoires pharmaceutiques américains : efavirenz (vendu sous le nom de Sustiva par Bristol-Myers Squibb), emtricitabine et fumarate de ténofovir disoproxil (vendus en association sous le nom de Truvada par Gilead Sciences)[1].
-Cette triple association en une seule grosse pilule permet de réduire le nombre de comprimés à prendre pour le patient, et entraine par conséquent une meilleure observance du traitement. Par comparaison, lors de leurs débuts en 1995 et 1996, les trithérapies représentaient 25 à 30 comprimés par jour[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'efavirenz/emtricitabine/ténofovir est la première trithérapie anti-VIH disponible en un seul comprimé quotidien, vendue sous le nom d'Atripla. Il associe trois molécules provenant de laboratoires pharmaceutiques américains : efavirenz (vendu sous le nom de Sustiva par Bristol-Myers Squibb), emtricitabine et fumarate de ténofovir disoproxil (vendus en association sous le nom de Truvada par Gilead Sciences).
+Cette triple association en une seule grosse pilule permet de réduire le nombre de comprimés à prendre pour le patient, et entraine par conséquent une meilleure observance du traitement. Par comparaison, lors de leurs débuts en 1995 et 1996, les trithérapies représentaient 25 à 30 comprimés par jour.
 Lors de son lancement en France en 2009, une boîte d'efavirenz/emtricitabine/ténofovir, représentant un mois de traitement, coutait 834,30 euros, soit la somme équivalant au prix des deux pilules qu'il remplace, il est actuellement à 745,67 €[réf. nécessaire].
 Le traitement doit être initié par des médecins expérimentés dans la prise en charge de l'infection par le virus de l'immunodéficience humaine (VIH).
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>t%C3%A9nofovir</t>
+          <t>ténofovir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Aspect et forme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comprimé pelliculé rose, oblong, biconvexe, portant l'inscription « 123 » gravée sur une face et aucune inscription sur l'autre face.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>t%C3%A9nofovir</t>
+          <t>ténofovir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Posologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Wikipedia ne peut se substituer à un avis médical, voir Wikipédia:AVM
-Adultes : La dose recommandée d'efavirenz/emtricitabine/ténofovir est d'un comprimé à prendre une fois par jour[1] par voie orale[2].
+Adultes : La dose recommandée d'efavirenz/emtricitabine/ténofovir est d'un comprimé à prendre une fois par jour par voie orale.
 </t>
         </is>
       </c>
